--- a/biology/Neurosciences/Substance_grise_périaqueducale/Substance_grise_périaqueducale.xlsx
+++ b/biology/Neurosciences/Substance_grise_périaqueducale/Substance_grise_périaqueducale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Substance_grise_p%C3%A9riaqueducale</t>
+          <t>Substance_grise_périaqueducale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La substance grise périaqueducale (PAG) désigne un ensemble de neurones formant une masse de substance grise localisée autour de l'aqueduc cérébral au sein du tegmentum du mésencéphale. Elle joue un rôle important dans la douleur et les comportements de défense.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Substance_grise_p%C3%A9riaqueducale</t>
+          <t>Substance_grise_périaqueducale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Images additionnelles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Représentation schématique des principales catégories ganglionnaires (I à V).
